--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H2">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I2">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J2">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.359970666666666</v>
+        <v>2.166102</v>
       </c>
       <c r="N2">
-        <v>13.079912</v>
+        <v>6.498306</v>
       </c>
       <c r="O2">
-        <v>0.09519723722949403</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="P2">
-        <v>0.09519723722949404</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="Q2">
-        <v>386.8293141277778</v>
+        <v>56.63191150513801</v>
       </c>
       <c r="R2">
-        <v>3481.46382715</v>
+        <v>509.6872035462421</v>
       </c>
       <c r="S2">
-        <v>0.07306445626660159</v>
+        <v>0.02205478285148249</v>
       </c>
       <c r="T2">
-        <v>0.0730644562666016</v>
+        <v>0.0220547828514825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H3">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I3">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J3">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>88.94574899999999</v>
       </c>
       <c r="O3">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="P3">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="Q3">
-        <v>2630.50875879375</v>
+        <v>775.150906424877</v>
       </c>
       <c r="R3">
-        <v>23674.57882914375</v>
+        <v>6976.358157823893</v>
       </c>
       <c r="S3">
-        <v>0.4968514152014648</v>
+        <v>0.3018754702775564</v>
       </c>
       <c r="T3">
-        <v>0.4968514152014649</v>
+        <v>0.3018754702775564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>88.72291666666666</v>
+        <v>26.144619</v>
       </c>
       <c r="H4">
-        <v>266.16875</v>
+        <v>78.433857</v>
       </c>
       <c r="I4">
-        <v>0.7675060578750151</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="J4">
-        <v>0.7675060578750152</v>
+        <v>0.5211737020083955</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.79078666666666</v>
+        <v>19.37218933333333</v>
       </c>
       <c r="N4">
-        <v>35.37235999999999</v>
+        <v>58.116568</v>
       </c>
       <c r="O4">
-        <v>0.2574444649388363</v>
+        <v>0.3784600952029219</v>
       </c>
       <c r="P4">
-        <v>0.2574444649388363</v>
+        <v>0.378460095202922</v>
       </c>
       <c r="Q4">
-        <v>1046.112982861111</v>
+        <v>506.4785093158641</v>
       </c>
       <c r="R4">
-        <v>9415.016845749999</v>
+        <v>4558.306583842776</v>
       </c>
       <c r="S4">
-        <v>0.1975901864069488</v>
+        <v>0.1972434488793566</v>
       </c>
       <c r="T4">
-        <v>0.1975901864069488</v>
+        <v>0.1972434488793567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>53.74755</v>
       </c>
       <c r="I5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J5">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.359970666666666</v>
+        <v>2.166102</v>
       </c>
       <c r="N5">
-        <v>13.079912</v>
+        <v>6.498306</v>
       </c>
       <c r="O5">
-        <v>0.09519723722949403</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="P5">
-        <v>0.09519723722949404</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="Q5">
-        <v>78.1125804684</v>
+        <v>38.80755851670001</v>
       </c>
       <c r="R5">
-        <v>703.0132242156</v>
+        <v>349.2680266503</v>
       </c>
       <c r="S5">
-        <v>0.01475393154309806</v>
+        <v>0.01511325069796323</v>
       </c>
       <c r="T5">
-        <v>0.01475393154309807</v>
+        <v>0.01511325069796323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>53.74755</v>
       </c>
       <c r="I6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J6">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>88.94574899999999</v>
       </c>
       <c r="O6">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="P6">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="Q6">
-        <v>531.1795657405499</v>
+        <v>531.1795657405501</v>
       </c>
       <c r="R6">
         <v>4780.61609166495</v>
       </c>
       <c r="S6">
-        <v>0.1003293823227238</v>
+        <v>0.2068630506404457</v>
       </c>
       <c r="T6">
-        <v>0.1003293823227238</v>
+        <v>0.2068630506404457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>53.74755</v>
       </c>
       <c r="I7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830743</v>
       </c>
       <c r="J7">
-        <v>0.1549827702197958</v>
+        <v>0.3571392594830742</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79078666666666</v>
+        <v>19.37218933333333</v>
       </c>
       <c r="N7">
-        <v>35.37235999999999</v>
+        <v>58.116568</v>
       </c>
       <c r="O7">
-        <v>0.2574444649388363</v>
+        <v>0.3784600952029219</v>
       </c>
       <c r="P7">
-        <v>0.2574444649388363</v>
+        <v>0.378460095202922</v>
       </c>
       <c r="Q7">
-        <v>211.2419653019999</v>
+        <v>347.0692382676001</v>
       </c>
       <c r="R7">
-        <v>1901.177687718</v>
+        <v>3123.6231444084</v>
       </c>
       <c r="S7">
-        <v>0.03989945635397394</v>
+        <v>0.1351629581446653</v>
       </c>
       <c r="T7">
-        <v>0.03989945635397395</v>
+        <v>0.1351629581446653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H8">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I8">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J8">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.359970666666666</v>
+        <v>2.166102</v>
       </c>
       <c r="N8">
-        <v>13.079912</v>
+        <v>6.498306</v>
       </c>
       <c r="O8">
-        <v>0.09519723722949403</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="P8">
-        <v>0.09519723722949404</v>
+        <v>0.04231752823769151</v>
       </c>
       <c r="Q8">
-        <v>39.06626294043821</v>
+        <v>13.222788428466</v>
       </c>
       <c r="R8">
-        <v>351.596366463944</v>
+        <v>119.005095856194</v>
       </c>
       <c r="S8">
-        <v>0.007378849419794369</v>
+        <v>0.005149494688245778</v>
       </c>
       <c r="T8">
-        <v>0.007378849419794372</v>
+        <v>0.005149494688245779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H9">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I9">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J9">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>88.94574899999999</v>
       </c>
       <c r="O9">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="P9">
-        <v>0.6473582978316698</v>
+        <v>0.5792223765593866</v>
       </c>
       <c r="Q9">
-        <v>265.657599062457</v>
+        <v>180.987294325389</v>
       </c>
       <c r="R9">
-        <v>2390.918391562113</v>
+        <v>1628.885648928501</v>
       </c>
       <c r="S9">
-        <v>0.05017750030748109</v>
+        <v>0.07048385564138443</v>
       </c>
       <c r="T9">
-        <v>0.0501775003074811</v>
+        <v>0.07048385564138443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.960212333333333</v>
+        <v>6.104416333333333</v>
       </c>
       <c r="H10">
-        <v>26.880637</v>
+        <v>18.313249</v>
       </c>
       <c r="I10">
-        <v>0.077511171905189</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="J10">
-        <v>0.07751117190518901</v>
+        <v>0.1216870385085301</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.79078666666666</v>
+        <v>19.37218933333333</v>
       </c>
       <c r="N10">
-        <v>35.37235999999999</v>
+        <v>58.116568</v>
       </c>
       <c r="O10">
-        <v>0.2574444649388363</v>
+        <v>0.3784600952029219</v>
       </c>
       <c r="P10">
-        <v>0.2574444649388363</v>
+        <v>0.378460095202922</v>
       </c>
       <c r="Q10">
-        <v>105.6479521103689</v>
+        <v>118.2559089788258</v>
       </c>
       <c r="R10">
-        <v>950.8315689933198</v>
+        <v>1064.303180809432</v>
       </c>
       <c r="S10">
-        <v>0.01995482217791355</v>
+        <v>0.04605368817889994</v>
       </c>
       <c r="T10">
-        <v>0.01995482217791355</v>
+        <v>0.04605368817889995</v>
       </c>
     </row>
   </sheetData>
